--- a/metaData/niger-2015_vignettes_codebook.xlsx
+++ b/metaData/niger-2015_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5536458-CB61-4948-9B63-9651CBD72A1E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDB3E34F-92A3-428E-9407-359378B2C9CC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5980,9 +5980,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>In Niger survey, item is "measure blood sugar"</t>
   </si>
   <si>
@@ -6152,6 +6149,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -6739,8 +6739,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -6798,7 +6798,7 @@
         <v>1952</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -6810,7 +6810,7 @@
         <v>1953</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D5" s="13"/>
     </row>
@@ -6822,7 +6822,7 @@
         <v>1955</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -6854,7 +6854,7 @@
         <v>1959</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>582</v>
@@ -6868,7 +6868,7 @@
         <v>1960</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -6880,7 +6880,7 @@
         <v>1961</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -6892,7 +6892,7 @@
         <v>1962</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D12" s="13"/>
     </row>
@@ -6904,19 +6904,19 @@
         <v>1963</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>2004</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="23" t="s">
         <v>2005</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>2006</v>
       </c>
       <c r="D14" s="13"/>
     </row>
@@ -6928,7 +6928,7 @@
         <v>238</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -6937,10 +6937,10 @@
         <v>1964</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>582</v>
@@ -6954,7 +6954,7 @@
         <v>579</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>582</v>
@@ -6965,10 +6965,10 @@
         <v>1966</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>582</v>
@@ -6979,10 +6979,10 @@
         <v>1967</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>582</v>
@@ -6993,10 +6993,10 @@
         <v>1968</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>582</v>
@@ -7007,10 +7007,10 @@
         <v>1969</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>582</v>
@@ -7021,10 +7021,10 @@
         <v>1970</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>582</v>
@@ -7047,7 +7047,7 @@
         <v>1974</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>582</v>
@@ -7058,10 +7058,10 @@
         <v>1975</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1976</v>
+        <v>2033</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>582</v>
@@ -7075,23 +7075,23 @@
         <v>581</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>2016</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="32" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>2018</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>1423</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="21" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>1427</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>1428</v>
@@ -7916,7 +7916,7 @@
         <v>1710</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>587</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="19" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>2009</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>2010</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>1514</v>
@@ -9174,7 +9174,7 @@
         <v>587</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>593</v>
@@ -9182,24 +9182,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B7" s="26">
         <v>0</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B8" s="26">
         <v>1</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
@@ -10010,7 +10010,7 @@
         <v>587</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -10541,7 +10541,7 @@
         <v>587</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -10952,7 +10952,7 @@
         <v>587</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -11399,10 +11399,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="19" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>1981</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>1982</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="22"/>
@@ -11509,7 +11509,7 @@
         <v>106</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>587</v>
@@ -12815,10 +12815,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>2014</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -14918,13 +14918,13 @@
         <v>224</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>587</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -20634,7 +20634,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>1364</v>
@@ -20915,7 +20915,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>1380</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>1394</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="19" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>1395</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="19" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>1404</v>
@@ -21405,7 +21405,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="19" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>1410</v>
